--- a/صيدليات دكتور مصطفي طلعت_2026-01-12_19-17.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-12_19-17.xlsx
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
   </si>
   <si>
     <t>OPLEX-N SYRUP 125ML</t>
@@ -1630,17 +1633,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1648,7 +1651,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1656,13 +1659,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1682,13 +1685,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1708,17 +1711,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1734,17 +1737,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>20.010000000000002</v>
+        <v>17</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1752,7 +1755,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1760,13 +1763,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>56.399999999999999</v>
+        <v>20.010000000000002</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1778,7 +1781,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1786,13 +1789,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>37.600000000000001</v>
+        <v>56.399999999999999</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1812,17 +1815,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>27</v>
+        <v>37.600000000000001</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1838,17 +1841,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1870,11 +1873,11 @@
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1890,13 +1893,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>67.5</v>
+        <v>76</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -1916,17 +1919,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>23</v>
+        <v>67.5</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1942,17 +1945,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>675</v>
+        <v>23</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -1968,13 +1971,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>25</v>
+        <v>675</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -1994,17 +1997,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2012,7 +2015,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2020,17 +2023,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2038,7 +2041,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2046,7 +2049,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
@@ -2056,7 +2059,7 @@
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2072,13 +2075,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>196</v>
+        <v>4</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2098,13 +2101,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2124,13 +2127,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2150,13 +2153,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2168,7 +2171,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2176,17 +2179,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2202,13 +2205,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
@@ -2228,51 +2231,77 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>54.450000000000003</v>
+        <v>70</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
-      <c r="K58" s="10">
-        <v>3558.5599999999999</v>
-      </c>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-    </row>
-    <row r="59" ht="17.25" customHeight="1">
-      <c t="s" r="A59" s="11">
+      <c r="A58" s="6">
+        <v>55</v>
+      </c>
+      <c t="s" r="B58" s="7">
+        <v>82</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c t="s" r="H58" s="8">
         <v>83</v>
       </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c t="s" r="F59" s="12">
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="9">
+        <v>54.450000000000003</v>
+      </c>
+      <c r="M58" s="9"/>
+      <c t="s" r="N58" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="K59" s="10">
+        <v>3583.5599999999999</v>
+      </c>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="11">
         <v>84</v>
       </c>
-      <c r="G59" s="12"/>
-      <c r="H59" s="13"/>
-      <c t="s" r="I59" s="14">
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c t="s" r="F60" s="12">
         <v>85</v>
       </c>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="13"/>
+      <c t="s" r="I60" s="14">
+        <v>86</v>
+      </c>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="173">
+  <mergeCells count="176">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2442,10 +2471,13 @@
     <mergeCell ref="B57:G57"/>
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="I59:N59"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="I60:N60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
